--- a/data/save_data/2021/feyereisen_j. p..xlsx
+++ b/data/save_data/2021/feyereisen_j. p..xlsx
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>-2</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>-2</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>-4</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>-9</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1114,7 +1114,7 @@
         <v>-2</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-3</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>-5</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>-6</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>-1</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>-1</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>-1</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>-2</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>2</v>
@@ -2406,7 +2406,7 @@
         <v>-2</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>-3</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>-2</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>-2</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>-1</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>-1</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>

--- a/data/save_data/2021/feyereisen_j. p..xlsx
+++ b/data/save_data/2021/feyereisen_j. p..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -533,7 +533,7 @@
         <v>-2</v>
       </c>
       <c r="F3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -598,10 +598,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -666,10 +666,10 @@
         <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -771,7 +771,7 @@
         <v>-2</v>
       </c>
       <c r="F10" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>20</v>
       </c>
       <c r="E14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F14" t="n">
         <v>-1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -938,10 +938,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>-4</v>
       </c>
       <c r="F16" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1040,10 +1040,10 @@
         <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F19" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F20" t="n">
         <v>-2</v>
@@ -1145,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1176,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F22" t="n">
         <v>-3</v>
@@ -1213,7 +1213,7 @@
         <v>-5</v>
       </c>
       <c r="F23" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>-6</v>
       </c>
       <c r="F24" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>27</v>
       </c>
       <c r="E32" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1652,10 +1652,10 @@
         <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1754,10 +1754,10 @@
         <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         <v>-1</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2097,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F52" t="n">
         <v>-1</v>
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2332,10 +2332,10 @@
         <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>-2</v>
       </c>
       <c r="F57" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>-2</v>
       </c>
       <c r="F58" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>-3</v>
       </c>
       <c r="F59" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>-2</v>
       </c>
       <c r="F61" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2536,10 +2536,10 @@
         <v>12</v>
       </c>
       <c r="E62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F62" t="n">
         <v>-1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-2</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2573,7 +2573,7 @@
         <v>-1</v>
       </c>
       <c r="F63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2709,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>-1</v>
       </c>
       <c r="F68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
